--- a/XlsSerializer.Examples.Web/data/Xlsx/CellLabels.xlsx
+++ b/XlsSerializer.Examples.Web/data/Xlsx/CellLabels.xlsx
@@ -17,10 +17,10 @@
     <t>First Label</t>
   </si>
   <si>
-    <t>bc74e581-d020-4450-87ad-136760f9f662</t>
+    <t>8154b3c0-4152-4a08-811e-2c2837f14d24</t>
   </si>
   <si>
-    <t>7ce069ed-098a-4110-8c81-953a6c354751</t>
+    <t>51cc4521-b585-476b-b67d-9dd0425fd5dd</t>
   </si>
 </sst>
 </file>

--- a/XlsSerializer.Examples.Web/data/Xlsx/CellLabels.xlsx
+++ b/XlsSerializer.Examples.Web/data/Xlsx/CellLabels.xlsx
@@ -17,10 +17,10 @@
     <t>First Label</t>
   </si>
   <si>
-    <t>8154b3c0-4152-4a08-811e-2c2837f14d24</t>
+    <t>b6db46c9-9371-434e-ba15-30f4896980ba</t>
   </si>
   <si>
-    <t>51cc4521-b585-476b-b67d-9dd0425fd5dd</t>
+    <t>061c89e2-3ecc-4f48-b983-92287051b4cd</t>
   </si>
 </sst>
 </file>
